--- a/data/emerytury-marzec-2025.xlsx
+++ b/data/emerytury-marzec-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamw\PycharmProjects\HackathonStreamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709A701-9FC5-4D13-B880-E22346D7675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46935083-A00E-4275-8242-01F6D9F1D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,9 +1667,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>percent</t>
-  </si>
-  <si>
     <t>10000,01 - 50000,00</t>
   </si>
   <si>
@@ -1677,6 +1674,9 @@
   </si>
   <si>
     <t>women_percentage</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -3164,7 +3164,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="range" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="number" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="percent" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="percentage" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="men_percentage" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="women_percentage" dataDxfId="0"/>
   </tableColumns>
@@ -3467,7 +3467,7 @@
   <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -3540,13 +3540,13 @@
         <v>522</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12306,7 +12306,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B523" s="13">
         <v>134052</v>
